--- a/data/trans_dic/P35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P35-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1524554482413852</v>
+        <v>0.1528383556030116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2124523119408845</v>
+        <v>0.2105537721889384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1891005441296496</v>
+        <v>0.1864761837181672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2865043759360366</v>
+        <v>0.2848850869065456</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1939612464708397</v>
+        <v>0.1937541426862447</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.283661116708757</v>
+        <v>0.2851672969542179</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2720656650968014</v>
+        <v>0.2694629957667394</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3171386784273274</v>
+        <v>0.3154222296011083</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1805027949646858</v>
+        <v>0.1805385222541878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2555291707118624</v>
+        <v>0.2565977986152327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2403024157933159</v>
+        <v>0.2398698386844755</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3118397824920469</v>
+        <v>0.3106748126092975</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2119963546540408</v>
+        <v>0.2133625695566764</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2778827326240389</v>
+        <v>0.2776352712739636</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2515168022435293</v>
+        <v>0.2520836259525956</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3612082528949244</v>
+        <v>0.3605884677985553</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2585661117038985</v>
+        <v>0.2568634680708836</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3596184720276139</v>
+        <v>0.3556826190172574</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3422811919433458</v>
+        <v>0.3435181225970381</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3751698810030087</v>
+        <v>0.3754671221593631</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2240714757060102</v>
+        <v>0.2230645394170963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3048554807171284</v>
+        <v>0.3058805506660563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2863028043370539</v>
+        <v>0.2896134711772183</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3550329883253495</v>
+        <v>0.3573581716230673</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3752534226451638</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4084555778952191</v>
+        <v>0.4084555778952192</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1954346856410615</v>
@@ -833,7 +833,7 @@
         <v>0.3309459141918902</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3797103400141735</v>
+        <v>0.3797103400141734</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1339645340869834</v>
+        <v>0.1351901628900168</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2323718835354789</v>
+        <v>0.2327532874258117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2567354775882778</v>
+        <v>0.257709427324333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3196019464159914</v>
+        <v>0.3201845577700408</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2048025957563979</v>
+        <v>0.2057198964933691</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3184141715447228</v>
+        <v>0.3175205347223609</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3434299834964289</v>
+        <v>0.3474942515220848</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3818097533388555</v>
+        <v>0.3844181085315811</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1767415369204601</v>
+        <v>0.1784793764148263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2826669737855145</v>
+        <v>0.2821401542389274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3106657036929397</v>
+        <v>0.3093628872856052</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3599198438466257</v>
+        <v>0.3563570274897797</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1832812679644234</v>
+        <v>0.1826233431124596</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2901734739356364</v>
+        <v>0.2892726647404074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3153637315503268</v>
+        <v>0.3158657107445752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3833894069401304</v>
+        <v>0.3839920577716815</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2621422108048778</v>
+        <v>0.262590652705269</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3809758659702537</v>
+        <v>0.3807611387951714</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4075974272240237</v>
+        <v>0.4078948956251395</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.43667997372652</v>
+        <v>0.4365991885878663</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.21563004585197</v>
+        <v>0.216550491892488</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3249022190614956</v>
+        <v>0.3255174976605992</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3513547701201613</v>
+        <v>0.3527962043299977</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4013459927761432</v>
+        <v>0.4002328195235428</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.3498916233615605</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3473760835094935</v>
+        <v>0.3473760835094934</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1715941988908901</v>
+        <v>0.1739661349621978</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2304607608420101</v>
+        <v>0.2299464271016305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2902685038591684</v>
+        <v>0.2930366990963208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2970231980902741</v>
+        <v>0.2950044913732711</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2214794191092278</v>
+        <v>0.2188669115688394</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3172499945249034</v>
+        <v>0.3161013303700539</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3411290687725162</v>
+        <v>0.3355128939283217</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3293536297901118</v>
+        <v>0.3342480944366703</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.20672179969996</v>
+        <v>0.206207579373193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2825474120191234</v>
+        <v>0.2837704010305188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3256746613150566</v>
+        <v>0.3253434480163489</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3231834501548025</v>
+        <v>0.3242237281837531</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2375569811007373</v>
+        <v>0.2369102539459329</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3028957521661196</v>
+        <v>0.3004783133948607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.359332050249018</v>
+        <v>0.3622972068044226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3702297074784487</v>
+        <v>0.3686661376151605</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2897735672660548</v>
+        <v>0.2895711182699147</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3876694988215299</v>
+        <v>0.3879814138016539</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4115637117502317</v>
+        <v>0.4096323145862916</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3945420684446277</v>
+        <v>0.3922073746126398</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2529245443803234</v>
+        <v>0.2524319194002578</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3332540229976015</v>
+        <v>0.3360391933062538</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.375733592763045</v>
+        <v>0.3741937929352099</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3723531128425773</v>
+        <v>0.3745203677006376</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1470373803907028</v>
+        <v>0.1465112087652545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2419594343566347</v>
+        <v>0.2393015591340774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2461816152766856</v>
+        <v>0.2484539307765512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.329914408851081</v>
+        <v>0.3319204999281719</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1455345773164615</v>
+        <v>0.1465686041587144</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3201424839148704</v>
+        <v>0.3171793287248793</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.296680743078065</v>
+        <v>0.2980136998971694</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3606306176284791</v>
+        <v>0.3597530792525475</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1534516448519891</v>
+        <v>0.1503564605140807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2911626499616061</v>
+        <v>0.2894113652942121</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2826775954033405</v>
+        <v>0.2835682981578816</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.355400284258129</v>
+        <v>0.3551151917198406</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1932119323318358</v>
+        <v>0.1935945773994884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3009674703838267</v>
+        <v>0.2990737062225642</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3086918092416206</v>
+        <v>0.3102980914635413</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3918662034265364</v>
+        <v>0.3937141425017458</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1919170339082713</v>
+        <v>0.1945637524184317</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3796646026479227</v>
+        <v>0.3819110543787034</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3578489394408752</v>
+        <v>0.3594115644538606</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4111208074038696</v>
+        <v>0.4135816577206778</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1850643942722629</v>
+        <v>0.1841148369320202</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3343272243259885</v>
+        <v>0.3347734173764272</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3242397157532049</v>
+        <v>0.3265366316511874</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3937976687159308</v>
+        <v>0.3940294304150009</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3144433408234503</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3617679223619268</v>
+        <v>0.3617679223619267</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2424174841535716</v>
+        <v>0.2443383346915504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2623808863196402</v>
+        <v>0.2626765288600764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3266271626839257</v>
+        <v>0.3258603084516956</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3287876526623422</v>
+        <v>0.3283642544564765</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3320458049702809</v>
+        <v>0.3321472413755874</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3642433778577643</v>
+        <v>0.3650458338340339</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2914017719481765</v>
+        <v>0.2917978565244086</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3028065002492183</v>
+        <v>0.3027796751298966</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3511417138325709</v>
+        <v>0.3510172983043317</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2737754299141041</v>
+        <v>0.2757498311356996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2951656380351427</v>
+        <v>0.2942425485724458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3607083302128785</v>
+        <v>0.361688283628055</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3605908206756354</v>
+        <v>0.3598665922058754</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3661004872815178</v>
+        <v>0.3646780896124355</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3941292851989503</v>
+        <v>0.3930080680151773</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3145482193926855</v>
+        <v>0.3150708786514536</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3262220017089578</v>
+        <v>0.3247852064127705</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.372670042852864</v>
+        <v>0.372489191071504</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>100828</v>
+        <v>101082</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>147259</v>
+        <v>145943</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>125853</v>
+        <v>124107</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>197891</v>
+        <v>196773</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>126938</v>
+        <v>126802</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>191555</v>
+        <v>192572</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>181889</v>
+        <v>180149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>232130</v>
+        <v>230874</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>237508</v>
+        <v>237555</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>349675</v>
+        <v>351137</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>320584</v>
+        <v>320007</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>443642</v>
+        <v>441985</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>140207</v>
+        <v>141110</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>192611</v>
+        <v>192439</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>167393</v>
+        <v>167771</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>249490</v>
+        <v>249062</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>169218</v>
+        <v>168104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>242849</v>
+        <v>240191</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>228832</v>
+        <v>229659</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>274606</v>
+        <v>274824</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>294836</v>
+        <v>293511</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>417174</v>
+        <v>418577</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>381953</v>
+        <v>386369</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>505092</v>
+        <v>508400</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>124144</v>
+        <v>125280</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>231541</v>
+        <v>231921</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>260061</v>
+        <v>261048</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>335236</v>
+        <v>335847</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>189276</v>
+        <v>190124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>320814</v>
+        <v>319913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>352689</v>
+        <v>356862</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>408623</v>
+        <v>411414</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>327128</v>
+        <v>330344</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>566453</v>
+        <v>565398</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>633731</v>
+        <v>631074</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>762722</v>
+        <v>755172</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>169845</v>
+        <v>169236</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>289136</v>
+        <v>288238</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>319449</v>
+        <v>319958</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>402144</v>
+        <v>402776</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>242269</v>
+        <v>242683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>383847</v>
+        <v>383631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>418586</v>
+        <v>418891</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>467346</v>
+        <v>467260</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>399106</v>
+        <v>400809</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>651091</v>
+        <v>652324</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>716734</v>
+        <v>719674</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>850510</v>
+        <v>848151</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>108552</v>
+        <v>110053</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>171095</v>
+        <v>170713</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>218907</v>
+        <v>220994</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>238531</v>
+        <v>236910</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>140523</v>
+        <v>138866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>241278</v>
+        <v>240405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>262958</v>
+        <v>258628</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>267282</v>
+        <v>271254</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>261934</v>
+        <v>261283</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>424650</v>
+        <v>426488</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>496653</v>
+        <v>496148</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>521815</v>
+        <v>523495</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>150281</v>
+        <v>149872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>224871</v>
+        <v>223076</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>270991</v>
+        <v>273227</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>297321</v>
+        <v>296066</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>183854</v>
+        <v>183726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>294834</v>
+        <v>295072</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>317252</v>
+        <v>315763</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>320185</v>
+        <v>318290</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>320477</v>
+        <v>319853</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>500858</v>
+        <v>505044</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>572993</v>
+        <v>570645</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>601205</v>
+        <v>604704</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133298</v>
+        <v>132821</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>216692</v>
+        <v>214311</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>223256</v>
+        <v>225317</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>326636</v>
+        <v>328622</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>144795</v>
+        <v>145824</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>322945</v>
+        <v>319956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>305461</v>
+        <v>306834</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>402814</v>
+        <v>401833</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>291785</v>
+        <v>285899</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>554467</v>
+        <v>551132</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>547397</v>
+        <v>549122</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>748840</v>
+        <v>748239</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>175158</v>
+        <v>175505</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>269537</v>
+        <v>267841</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>279946</v>
+        <v>281402</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>387972</v>
+        <v>389801</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>190942</v>
+        <v>193575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>382988</v>
+        <v>385254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>368440</v>
+        <v>370049</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>459210</v>
+        <v>461958</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>351896</v>
+        <v>350090</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>636667</v>
+        <v>637516</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>627881</v>
+        <v>632329</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>829744</v>
+        <v>830233</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>806652</v>
+        <v>813044</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>876226</v>
+        <v>877214</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1153896</v>
+        <v>1151187</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1135012</v>
+        <v>1133551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1160815</v>
+        <v>1161170</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1358877</v>
+        <v>1361870</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1975601</v>
+        <v>1978287</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2069824</v>
+        <v>2069641</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2550499</v>
+        <v>2549595</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>910997</v>
+        <v>917567</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>985712</v>
+        <v>982629</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1274297</v>
+        <v>1277759</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1244801</v>
+        <v>1242301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1279869</v>
+        <v>1274896</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1470371</v>
+        <v>1466189</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2132526</v>
+        <v>2136070</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2229880</v>
+        <v>2220059</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2706868</v>
+        <v>2705555</v>
       </c>
     </row>
     <row r="24">
